--- a/Misure Tot.xlsx
+++ b/Misure Tot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\uni\Bicocca\Magistrale\1 anno\Metodi del calcolo scientifico\Progetto\1\TEMPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2984680A-6911-4D6C-8682-D29F29D580AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB950E3-62BA-446C-9E8F-1F444054A735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="49">
   <si>
     <t>MATRICE</t>
   </si>
@@ -143,14 +143,54 @@
   <si>
     <t>Err Ubuntu</t>
   </si>
+  <si>
+    <t>MATLAB (s)</t>
+  </si>
+  <si>
+    <t>R (s)</t>
+  </si>
+  <si>
+    <t>Python (s)</t>
+  </si>
+  <si>
+    <t>C++ (s)</t>
+  </si>
+  <si>
+    <t>Fake, creato solo per il grafico</t>
+  </si>
+  <si>
+    <t>MATLAB (MB)</t>
+  </si>
+  <si>
+    <t>Python (MB)</t>
+  </si>
+  <si>
+    <t>C++ (MB)</t>
+  </si>
+  <si>
+    <t>R (MB)</t>
+  </si>
+  <si>
+    <t>C++</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Python </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R </t>
+  </si>
+  <si>
+    <t>MATLAB</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000000000000000"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0000000000000000E+00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -175,7 +215,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -300,11 +340,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -342,6 +434,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -349,6 +442,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -360,15 +462,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -378,7 +471,27 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1955,6 +2068,1892 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="546840367"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$E$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C++ (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.2777777777777778E-2"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>FAKE</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-78F6-4A39-B5D6-6002FAC1D207}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$44:$E$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>867</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11107.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21938</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-78F6-4A39-B5D6-6002FAC1D207}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$F$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Python (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$F$44:$F$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.96499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.59</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.2109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.376999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-78F6-4A39-B5D6-6002FAC1D207}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$G$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$G$44:$G$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.3906400000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61.929000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>88.35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.499000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6359999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1871.466075</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-78F6-4A39-B5D6-6002FAC1D207}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$H$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATLAB (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$H$44:$H$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.145652</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.419437</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.119775</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.1559869999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.59745</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8173779999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47.19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>403.65339999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-78F6-4A39-B5D6-6002FAC1D207}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="45991519"/>
+        <c:axId val="45984447"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="45991519"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="45984447"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="45984447"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="45991519"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>RAM</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> Peak</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$E$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C++ (MB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.5555555555555552E-2"/>
+                  <c:y val="-2.3148148148148147E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>FAKE</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-9101-4100-80B7-17D12A685F5F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$58:$E$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>413</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2335</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>752</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3904.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7057</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9101-4100-80B7-17D12A685F5F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$F$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Python (MB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$F$58:$F$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>176.12800000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>258.048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>536.57600000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1540.096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>860.16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>901.12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5013.5039999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9101-4100-80B7-17D12A685F5F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$G$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R (MB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$G$58:$G$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>21.86308</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.548802999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>163.57148000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1988.8832640000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>274.94207999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85.275335999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1418.6064799999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9101-4100-80B7-17D12A685F5F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$H$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATLAB (MB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$H$58:$H$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>79.861000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.525000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>402.24799999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1584.64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1853.4390000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>506.88</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6261.2280000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10821.608249999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9101-4100-80B7-17D12A685F5F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1956560271"/>
+        <c:axId val="1956578159"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1956560271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1956578159"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1956578159"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1956560271"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Error</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$E$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C++</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.8888888888888994E-2"/>
+                  <c:y val="4.1666666666666664E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>FAKE</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-27A3-4ABD-8599-7F9251FBCA06}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$69:$E$76</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000000000000E+00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>9.0404699999999995E-13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1203000000000001E-11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.7767700000000003E-15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2565100000000004E-12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2928900000000002E-14</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>2.701557146445E-8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.4031100000000001E-8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-27A3-4ABD-8599-7F9251FBCA06}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$F$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Python </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$F$69:$F$76</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000000000000E+00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.5421964438401398E-13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.66696719991457E-11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.4898639616557602E-15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0146065635240301E-12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.3564967382118697E-14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.32264230605292E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.1640007644011202E-10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-27A3-4ABD-8599-7F9251FBCA06}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$G$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$G$69:$G$76</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000000000000E+00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7.7931218627444002E-13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0046500697320201E-11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0191779216228101E-14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4129522772949801E-12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2939988823147899E-14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.6267756992300603E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.50249542234088E-8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-27A3-4ABD-8599-7F9251FBCA06}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$H$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATLAB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$H$69:$H$76</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000000000000E+00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.80985793527588E-15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4303331893609901E-11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.3890062432155104E-16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5748490751662501E-12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3311170240323398E-14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.12101483800396E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5005772771062001E-11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.4255806455859999E-14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-27A3-4ABD-8599-7F9251FBCA06}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1958240511"/>
+        <c:axId val="1958240927"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1958240511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1958240927"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1958240927"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000000000000000E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1958240511"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5479,6 +7478,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -7348,6 +9467,1554 @@
 </file>
 
 <file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12425,6 +16092,114 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Grafico 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76CB0CCC-72FF-42E5-BF8B-E5E592A8A048}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Grafico 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{582878B3-A8E8-4863-B33E-63684F7364A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>280987</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Grafico 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E69BB399-35FE-41A4-A04F-62D2A2D1D00A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12691,10 +16466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:L40"/>
+  <dimension ref="B1:L76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J50" sqref="J50"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O64" sqref="O64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12715,18 +16490,18 @@
       <c r="B1" s="16"/>
       <c r="C1" s="17"/>
       <c r="D1" s="18"/>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="43" t="s">
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="45"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="43"/>
     </row>
     <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="16" t="s">
@@ -12949,14 +16724,14 @@
       <c r="D8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="46"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="48"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="49"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
@@ -13003,31 +16778,31 @@
       <c r="D10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="46"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="48"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="49"/>
     </row>
     <row r="11" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="37" t="s">
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="40"/>
     </row>
     <row r="12" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="16" t="s">
@@ -13326,31 +17101,31 @@
       <c r="D20" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="40"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="42"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="46"/>
     </row>
     <row r="21" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="16"/>
       <c r="C21" s="17"/>
       <c r="D21" s="18"/>
-      <c r="E21" s="43" t="s">
+      <c r="E21" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="43" t="s">
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="45"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="43"/>
     </row>
     <row r="22" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
@@ -13656,10 +17431,10 @@
       <c r="D30" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="40"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="42"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="46"/>
       <c r="I30" s="34">
         <v>19.13</v>
       </c>
@@ -13671,18 +17446,18 @@
       <c r="B31" s="10"/>
       <c r="C31" s="11"/>
       <c r="D31" s="12"/>
-      <c r="E31" s="37" t="s">
+      <c r="E31" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="37" t="s">
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="40"/>
     </row>
     <row r="32" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
@@ -13856,7 +17631,7 @@
       <c r="I36" s="1">
         <v>0.23162430000000001</v>
       </c>
-      <c r="J36" s="49">
+      <c r="J36" s="37">
         <v>15.3186938</v>
       </c>
       <c r="K36" s="29">
@@ -14015,13 +17790,405 @@
         <v>11653.983249999999</v>
       </c>
     </row>
+    <row r="42" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E43" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F43" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="G43" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H43" s="50" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E44" s="55">
+        <v>73</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="G44" s="11">
+        <v>1.3906400000000001</v>
+      </c>
+      <c r="H44" s="51">
+        <v>0.145652</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E45" s="51">
+        <v>38</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1</v>
+      </c>
+      <c r="G45" s="2">
+        <v>17.41</v>
+      </c>
+      <c r="H45" s="51">
+        <v>0.419437</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E46" s="51">
+        <v>222</v>
+      </c>
+      <c r="F46" s="3">
+        <v>5.38</v>
+      </c>
+      <c r="G46" s="2">
+        <v>61.929000000000002</v>
+      </c>
+      <c r="H46" s="51">
+        <v>1.119775</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E47" s="51">
+        <v>867</v>
+      </c>
+      <c r="F47" s="21">
+        <v>1.59</v>
+      </c>
+      <c r="G47" s="19">
+        <v>88.35</v>
+      </c>
+      <c r="H47" s="51">
+        <v>8.1559869999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E48" s="51">
+        <v>277</v>
+      </c>
+      <c r="F48" s="21">
+        <v>3.6</v>
+      </c>
+      <c r="G48" s="2">
+        <v>15.499000000000001</v>
+      </c>
+      <c r="H48" s="51">
+        <v>1.59745</v>
+      </c>
+    </row>
+    <row r="49" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>40</v>
+      </c>
+      <c r="E49" s="56">
+        <f>(277+21938)/2</f>
+        <v>11107.5</v>
+      </c>
+      <c r="F49" s="6">
+        <v>3.2109999999999999</v>
+      </c>
+      <c r="G49" s="5">
+        <v>1.6359999999999999</v>
+      </c>
+      <c r="H49" s="52">
+        <v>1.8173779999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E50" s="51">
+        <v>21938</v>
+      </c>
+      <c r="F50" s="6">
+        <v>24.376999999999999</v>
+      </c>
+      <c r="G50" s="5">
+        <v>1871.466075</v>
+      </c>
+      <c r="H50" s="51">
+        <v>47.19</v>
+      </c>
+    </row>
+    <row r="51" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E51" s="53"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="54">
+        <v>403.65339999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E57" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="G57" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H57" s="50" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E58" s="1">
+        <v>107</v>
+      </c>
+      <c r="F58" s="51">
+        <f>43*4.096</f>
+        <v>176.12800000000001</v>
+      </c>
+      <c r="G58" s="55">
+        <f xml:space="preserve"> 21863080/1000000</f>
+        <v>21.86308</v>
+      </c>
+      <c r="H58" s="3">
+        <f>638888/1000*0.125</f>
+        <v>79.861000000000004</v>
+      </c>
+    </row>
+    <row r="59" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E59" s="1">
+        <v>142</v>
+      </c>
+      <c r="F59" s="51">
+        <f>63*4.096</f>
+        <v>258.048</v>
+      </c>
+      <c r="G59" s="51">
+        <f>26548803/1000000</f>
+        <v>26.548802999999999</v>
+      </c>
+      <c r="H59" s="3">
+        <f>660200/1000*0.125</f>
+        <v>82.525000000000006</v>
+      </c>
+    </row>
+    <row r="60" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E60" s="1">
+        <v>413</v>
+      </c>
+      <c r="F60" s="51">
+        <f>131*4.096</f>
+        <v>536.57600000000002</v>
+      </c>
+      <c r="G60" s="51">
+        <f>163571480/1000000</f>
+        <v>163.57148000000001</v>
+      </c>
+      <c r="H60" s="3">
+        <f>3217984/1000*0.125</f>
+        <v>402.24799999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E61" s="1">
+        <v>2335</v>
+      </c>
+      <c r="F61" s="51">
+        <f>376*4.096</f>
+        <v>1540.096</v>
+      </c>
+      <c r="G61" s="51">
+        <f>1988883264/1000000</f>
+        <v>1988.8832640000001</v>
+      </c>
+      <c r="H61" s="3">
+        <f>12677120/1000*0.125</f>
+        <v>1584.64</v>
+      </c>
+    </row>
+    <row r="62" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E62" s="1">
+        <v>752</v>
+      </c>
+      <c r="F62" s="51">
+        <f>210*4.096</f>
+        <v>860.16</v>
+      </c>
+      <c r="G62" s="51">
+        <f>274942080/1000000</f>
+        <v>274.94207999999998</v>
+      </c>
+      <c r="H62" s="3">
+        <f>14827512/1000*0.125</f>
+        <v>1853.4390000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>40</v>
+      </c>
+      <c r="E63" s="59">
+        <f>(7057+752)/2</f>
+        <v>3904.5</v>
+      </c>
+      <c r="F63" s="52">
+        <f>220*4.096</f>
+        <v>901.12</v>
+      </c>
+      <c r="G63" s="52">
+        <f>85275336/1000000</f>
+        <v>85.275335999999996</v>
+      </c>
+      <c r="H63" s="6">
+        <f>4055040/1000*0.125</f>
+        <v>506.88</v>
+      </c>
+    </row>
+    <row r="64" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E64" s="1">
+        <v>7057</v>
+      </c>
+      <c r="F64" s="51">
+        <f>1224*4.096</f>
+        <v>5013.5039999999999</v>
+      </c>
+      <c r="G64" s="51">
+        <f>1418606480/1000000</f>
+        <v>1418.6064799999999</v>
+      </c>
+      <c r="H64" s="3">
+        <f>50089824/1000*0.125</f>
+        <v>6261.2280000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E65" s="57"/>
+      <c r="F65" s="53"/>
+      <c r="G65" s="58"/>
+      <c r="H65" s="9">
+        <f>86572866/1000*0.125</f>
+        <v>10821.608249999999</v>
+      </c>
+    </row>
+    <row r="67" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="68" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E68" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="F68" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="G68" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="H68" s="50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="69" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E69" s="63">
+        <v>9.0404699999999995E-13</v>
+      </c>
+      <c r="F69" s="67">
+        <v>5.5421964438401398E-13</v>
+      </c>
+      <c r="G69" s="61">
+        <v>7.7931218627444002E-13</v>
+      </c>
+      <c r="H69" s="67">
+        <v>3.80985793527588E-15</v>
+      </c>
+    </row>
+    <row r="70" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E70" s="63">
+        <v>1.1203000000000001E-11</v>
+      </c>
+      <c r="F70" s="67">
+        <v>1.66696719991457E-11</v>
+      </c>
+      <c r="G70" s="60">
+        <v>3.0046500697320201E-11</v>
+      </c>
+      <c r="H70" s="67">
+        <v>2.4303331893609901E-11</v>
+      </c>
+    </row>
+    <row r="71" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E71" s="63">
+        <v>7.7767700000000003E-15</v>
+      </c>
+      <c r="F71" s="67">
+        <v>8.4898639616557602E-15</v>
+      </c>
+      <c r="G71" s="60">
+        <v>2.0191779216228101E-14</v>
+      </c>
+      <c r="H71" s="67">
+        <v>9.3890062432155104E-16</v>
+      </c>
+    </row>
+    <row r="72" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E72" s="63">
+        <v>6.2565100000000004E-12</v>
+      </c>
+      <c r="F72" s="67">
+        <v>3.0146065635240301E-12</v>
+      </c>
+      <c r="G72" s="60">
+        <v>2.4129522772949801E-12</v>
+      </c>
+      <c r="H72" s="67">
+        <v>3.5748490751662501E-12</v>
+      </c>
+    </row>
+    <row r="73" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E73" s="63">
+        <v>4.2928900000000002E-14</v>
+      </c>
+      <c r="F73" s="67">
+        <v>5.3564967382118697E-14</v>
+      </c>
+      <c r="G73" s="60">
+        <v>4.2939988823147899E-14</v>
+      </c>
+      <c r="H73" s="67">
+        <v>3.3311170240323398E-14</v>
+      </c>
+    </row>
+    <row r="74" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>40</v>
+      </c>
+      <c r="E74" s="64">
+        <f>(0.0000000540311+0.0000000000000429289)/2</f>
+        <v>2.701557146445E-8</v>
+      </c>
+      <c r="F74" s="68">
+        <v>1.32264230605292E-5</v>
+      </c>
+      <c r="G74" s="62">
+        <v>8.6267756992300603E-6</v>
+      </c>
+      <c r="H74" s="68">
+        <v>1.12101483800396E-5</v>
+      </c>
+    </row>
+    <row r="75" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E75" s="63">
+        <v>5.4031100000000001E-8</v>
+      </c>
+      <c r="F75" s="67">
+        <v>9.1640007644011202E-10</v>
+      </c>
+      <c r="G75" s="60">
+        <v>1.50249542234088E-8</v>
+      </c>
+      <c r="H75" s="67">
+        <v>4.5005772771062001E-11</v>
+      </c>
+    </row>
+    <row r="76" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E76" s="65"/>
+      <c r="F76" s="69"/>
+      <c r="G76" s="66"/>
+      <c r="H76" s="70">
+        <v>7.4255806455859999E-14</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="E30:H30"/>
     <mergeCell ref="E11:H11"/>
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="E20:H20"/>
@@ -14032,6 +18199,11 @@
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="I8:L8"/>
     <mergeCell ref="I10:L10"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="E30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>

--- a/Misure Tot.xlsx
+++ b/Misure Tot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\uni\Bicocca\Magistrale\1 anno\Metodi del calcolo scientifico\Progetto\1\TEMPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB950E3-62BA-446C-9E8F-1F444054A735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3C33A2-0A4C-4C94-BE44-2371D34A61C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="48">
   <si>
     <t>MATRICE</t>
   </si>
@@ -154,9 +154,6 @@
   </si>
   <si>
     <t>C++ (s)</t>
-  </si>
-  <si>
-    <t>Fake, creato solo per il grafico</t>
   </si>
   <si>
     <t>MATLAB (MB)</t>
@@ -396,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -435,6 +432,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -442,6 +457,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -453,15 +477,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -471,27 +486,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -2255,101 +2251,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-5.2777777777777778E-2"/>
-                  <c:y val="0"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US">
-                        <a:solidFill>
-                          <a:srgbClr val="FF0000"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:t>FAKE</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-78F6-4A39-B5D6-6002FAC1D207}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="it-IT"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>Foglio1!$E$44:$E$51</c:f>
@@ -2372,9 +2273,6 @@
                   <c:v>277</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11107.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>21938</c:v>
                 </c:pt>
               </c:numCache>
@@ -2435,10 +2333,10 @@
                   <c:v>3.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>24.376999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>3.2109999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24.376999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2498,10 +2396,10 @@
                   <c:v>15.499000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>1871.466075</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1.6359999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1871.466075</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2561,10 +2459,10 @@
                   <c:v>1.59745</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>47.19</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1.8173779999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>47.19</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>403.65339999999998</c:v>
@@ -2887,101 +2785,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-5.5555555555555552E-2"/>
-                  <c:y val="-2.3148148148148147E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US">
-                        <a:solidFill>
-                          <a:srgbClr val="FF0000"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:t>FAKE</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-9101-4100-80B7-17D12A685F5F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="it-IT"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>Foglio1!$E$58:$E$65</c:f>
@@ -3004,9 +2807,6 @@
                   <c:v>752</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3904.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>7057</c:v>
                 </c:pt>
               </c:numCache>
@@ -3067,10 +2867,10 @@
                   <c:v>860.16</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>5013.5039999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>901.12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5013.5039999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3130,10 +2930,10 @@
                   <c:v>274.94207999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>1418.6064799999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>85.275335999999996</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1418.6064799999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3193,10 +2993,10 @@
                   <c:v>1853.4390000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>6261.2280000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>506.88</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6261.2280000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>10821.608249999999</c:v>
@@ -3514,101 +3314,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-3.8888888888888994E-2"/>
-                  <c:y val="4.1666666666666664E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US">
-                        <a:solidFill>
-                          <a:srgbClr val="FF0000"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:t>FAKE</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-27A3-4ABD-8599-7F9251FBCA06}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="it-IT"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>Foglio1!$E$69:$E$76</c:f>
@@ -3630,10 +3335,7 @@
                 <c:pt idx="4">
                   <c:v>4.2928900000000002E-14</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="General">
-                  <c:v>2.701557146445E-8</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="5">
                   <c:v>5.4031100000000001E-8</c:v>
                 </c:pt>
               </c:numCache>
@@ -3694,10 +3396,10 @@
                   <c:v>5.3564967382118697E-14</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>9.1640007644011202E-10</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1.32264230605292E-5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.1640007644011202E-10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3757,10 +3459,10 @@
                   <c:v>4.2939988823147899E-14</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>1.50249542234088E-8</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>8.6267756992300603E-6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.50249542234088E-8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3820,10 +3522,10 @@
                   <c:v>3.3311170240323398E-14</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>4.5005772771062001E-11</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1.12101483800396E-5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.5005772771062001E-11</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>7.4255806455859999E-14</c:v>
@@ -16094,16 +15796,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16130,16 +15832,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16166,16 +15868,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>119062</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>481012</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>280987</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>538162</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16468,8 +16170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O64" sqref="O64"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74:H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16490,18 +16192,18 @@
       <c r="B1" s="16"/>
       <c r="C1" s="17"/>
       <c r="D1" s="18"/>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="41" t="s">
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="43"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="64"/>
     </row>
     <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="16" t="s">
@@ -16724,14 +16426,14 @@
       <c r="D8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="47"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="49"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="67"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
@@ -16778,31 +16480,31 @@
       <c r="D10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="47"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="49"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="67"/>
     </row>
     <row r="11" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="38" t="s">
+      <c r="E11" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="38" t="s">
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="40"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="58"/>
     </row>
     <row r="12" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="16" t="s">
@@ -17101,31 +16803,31 @@
       <c r="D20" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="44"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="46"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="61"/>
     </row>
     <row r="21" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="16"/>
       <c r="C21" s="17"/>
       <c r="D21" s="18"/>
-      <c r="E21" s="41" t="s">
+      <c r="E21" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="41" t="s">
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="43"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="64"/>
     </row>
     <row r="22" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
@@ -17431,10 +17133,10 @@
       <c r="D30" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="44"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="46"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="61"/>
       <c r="I30" s="34">
         <v>19.13</v>
       </c>
@@ -17446,18 +17148,18 @@
       <c r="B31" s="10"/>
       <c r="C31" s="11"/>
       <c r="D31" s="12"/>
-      <c r="E31" s="38" t="s">
+      <c r="E31" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="38" t="s">
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="40"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="58"/>
     </row>
     <row r="32" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
@@ -17795,18 +17497,18 @@
       <c r="E43" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F43" s="50" t="s">
+      <c r="F43" s="38" t="s">
         <v>38</v>
       </c>
       <c r="G43" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="H43" s="50" t="s">
+      <c r="H43" s="38" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E44" s="55">
+      <c r="E44" s="43">
         <v>73</v>
       </c>
       <c r="F44" s="3">
@@ -17815,12 +17517,12 @@
       <c r="G44" s="11">
         <v>1.3906400000000001</v>
       </c>
-      <c r="H44" s="51">
+      <c r="H44" s="39">
         <v>0.145652</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E45" s="51">
+      <c r="E45" s="39">
         <v>38</v>
       </c>
       <c r="F45" s="3">
@@ -17829,12 +17531,12 @@
       <c r="G45" s="2">
         <v>17.41</v>
       </c>
-      <c r="H45" s="51">
+      <c r="H45" s="39">
         <v>0.419437</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E46" s="51">
+      <c r="E46" s="39">
         <v>222</v>
       </c>
       <c r="F46" s="3">
@@ -17843,12 +17545,12 @@
       <c r="G46" s="2">
         <v>61.929000000000002</v>
       </c>
-      <c r="H46" s="51">
+      <c r="H46" s="39">
         <v>1.119775</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E47" s="51">
+      <c r="E47" s="39">
         <v>867</v>
       </c>
       <c r="F47" s="21">
@@ -17857,12 +17559,12 @@
       <c r="G47" s="19">
         <v>88.35</v>
       </c>
-      <c r="H47" s="51">
+      <c r="H47" s="39">
         <v>8.1559869999999997</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E48" s="51">
+      <c r="E48" s="39">
         <v>277</v>
       </c>
       <c r="F48" s="21">
@@ -17871,74 +17573,68 @@
       <c r="G48" s="2">
         <v>15.499000000000001</v>
       </c>
-      <c r="H48" s="51">
+      <c r="H48" s="39">
         <v>1.59745</v>
       </c>
     </row>
-    <row r="49" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D49" t="s">
-        <v>40</v>
-      </c>
-      <c r="E49" s="56">
-        <f>(277+21938)/2</f>
-        <v>11107.5</v>
+    <row r="49" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E49" s="39">
+        <v>21938</v>
       </c>
       <c r="F49" s="6">
+        <v>24.376999999999999</v>
+      </c>
+      <c r="G49" s="5">
+        <v>1871.466075</v>
+      </c>
+      <c r="H49" s="39">
+        <v>47.19</v>
+      </c>
+    </row>
+    <row r="50" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E50" s="68"/>
+      <c r="F50" s="6">
         <v>3.2109999999999999</v>
       </c>
-      <c r="G49" s="5">
+      <c r="G50" s="5">
         <v>1.6359999999999999</v>
       </c>
-      <c r="H49" s="52">
+      <c r="H50" s="40">
         <v>1.8173779999999999</v>
       </c>
     </row>
-    <row r="50" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E50" s="51">
-        <v>21938</v>
-      </c>
-      <c r="F50" s="6">
-        <v>24.376999999999999</v>
-      </c>
-      <c r="G50" s="5">
-        <v>1871.466075</v>
-      </c>
-      <c r="H50" s="51">
-        <v>47.19</v>
-      </c>
-    </row>
-    <row r="51" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E51" s="53"/>
+    <row r="51" spans="5:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E51" s="41"/>
       <c r="F51" s="15"/>
       <c r="G51" s="14"/>
-      <c r="H51" s="54">
+      <c r="H51" s="42">
         <v>403.65339999999998</v>
       </c>
     </row>
-    <row r="56" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="57" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E57" s="50" t="s">
+    <row r="56" spans="5:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="5:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E57" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="F57" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="G57" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F57" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="G57" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H57" s="50" t="s">
-        <v>41</v>
+      <c r="H57" s="38" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="58" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E58" s="1">
         <v>107</v>
       </c>
-      <c r="F58" s="51">
+      <c r="F58" s="39">
         <f>43*4.096</f>
         <v>176.12800000000001</v>
       </c>
-      <c r="G58" s="55">
+      <c r="G58" s="43">
         <f xml:space="preserve"> 21863080/1000000</f>
         <v>21.86308</v>
       </c>
@@ -17947,15 +17643,15 @@
         <v>79.861000000000004</v>
       </c>
     </row>
-    <row r="59" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E59" s="1">
         <v>142</v>
       </c>
-      <c r="F59" s="51">
+      <c r="F59" s="39">
         <f>63*4.096</f>
         <v>258.048</v>
       </c>
-      <c r="G59" s="51">
+      <c r="G59" s="39">
         <f>26548803/1000000</f>
         <v>26.548802999999999</v>
       </c>
@@ -17964,15 +17660,15 @@
         <v>82.525000000000006</v>
       </c>
     </row>
-    <row r="60" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E60" s="1">
         <v>413</v>
       </c>
-      <c r="F60" s="51">
+      <c r="F60" s="39">
         <f>131*4.096</f>
         <v>536.57600000000002</v>
       </c>
-      <c r="G60" s="51">
+      <c r="G60" s="39">
         <f>163571480/1000000</f>
         <v>163.57148000000001</v>
       </c>
@@ -17981,15 +17677,15 @@
         <v>402.24799999999999</v>
       </c>
     </row>
-    <row r="61" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E61" s="1">
         <v>2335</v>
       </c>
-      <c r="F61" s="51">
+      <c r="F61" s="39">
         <f>376*4.096</f>
         <v>1540.096</v>
       </c>
-      <c r="G61" s="51">
+      <c r="G61" s="39">
         <f>1988883264/1000000</f>
         <v>1988.8832640000001</v>
       </c>
@@ -17998,15 +17694,15 @@
         <v>1584.64</v>
       </c>
     </row>
-    <row r="62" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E62" s="1">
         <v>752</v>
       </c>
-      <c r="F62" s="51">
+      <c r="F62" s="39">
         <f>210*4.096</f>
         <v>860.16</v>
       </c>
-      <c r="G62" s="51">
+      <c r="G62" s="39">
         <f>274942080/1000000</f>
         <v>274.94207999999998</v>
       </c>
@@ -18015,180 +17711,173 @@
         <v>1853.4390000000001</v>
       </c>
     </row>
-    <row r="63" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D63" t="s">
-        <v>40</v>
-      </c>
-      <c r="E63" s="59">
-        <f>(7057+752)/2</f>
-        <v>3904.5</v>
-      </c>
-      <c r="F63" s="52">
+    <row r="63" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E63" s="1">
+        <v>7057</v>
+      </c>
+      <c r="F63" s="39">
+        <f>1224*4.096</f>
+        <v>5013.5039999999999</v>
+      </c>
+      <c r="G63" s="39">
+        <f>1418606480/1000000</f>
+        <v>1418.6064799999999</v>
+      </c>
+      <c r="H63" s="3">
+        <f>50089824/1000*0.125</f>
+        <v>6261.2280000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E64" s="20"/>
+      <c r="F64" s="40">
         <f>220*4.096</f>
         <v>901.12</v>
       </c>
-      <c r="G63" s="52">
+      <c r="G64" s="40">
         <f>85275336/1000000</f>
         <v>85.275335999999996</v>
       </c>
-      <c r="H63" s="6">
+      <c r="H64" s="6">
         <f>4055040/1000*0.125</f>
         <v>506.88</v>
       </c>
     </row>
-    <row r="64" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E64" s="1">
-        <v>7057</v>
-      </c>
-      <c r="F64" s="51">
-        <f>1224*4.096</f>
-        <v>5013.5039999999999</v>
-      </c>
-      <c r="G64" s="51">
-        <f>1418606480/1000000</f>
-        <v>1418.6064799999999</v>
-      </c>
-      <c r="H64" s="3">
-        <f>50089824/1000*0.125</f>
-        <v>6261.2280000000001</v>
-      </c>
-    </row>
-    <row r="65" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E65" s="57"/>
-      <c r="F65" s="53"/>
-      <c r="G65" s="58"/>
+    <row r="65" spans="5:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E65" s="44"/>
+      <c r="F65" s="41"/>
+      <c r="G65" s="45"/>
       <c r="H65" s="9">
         <f>86572866/1000*0.125</f>
         <v>10821.608249999999</v>
       </c>
     </row>
-    <row r="67" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="68" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E68" s="50" t="s">
+    <row r="67" spans="5:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="68" spans="5:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E68" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="F68" s="50" t="s">
+      <c r="G68" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="G68" s="17" t="s">
+      <c r="H68" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="H68" s="50" t="s">
-        <v>48</v>
-      </c>
     </row>
-    <row r="69" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E69" s="63">
+    <row r="69" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E69" s="49">
         <v>9.0404699999999995E-13</v>
       </c>
-      <c r="F69" s="67">
+      <c r="F69" s="52">
         <v>5.5421964438401398E-13</v>
       </c>
-      <c r="G69" s="61">
+      <c r="G69" s="47">
         <v>7.7931218627444002E-13</v>
       </c>
-      <c r="H69" s="67">
+      <c r="H69" s="52">
         <v>3.80985793527588E-15</v>
       </c>
     </row>
-    <row r="70" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E70" s="63">
+    <row r="70" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E70" s="49">
         <v>1.1203000000000001E-11</v>
       </c>
-      <c r="F70" s="67">
+      <c r="F70" s="52">
         <v>1.66696719991457E-11</v>
       </c>
-      <c r="G70" s="60">
+      <c r="G70" s="46">
         <v>3.0046500697320201E-11</v>
       </c>
-      <c r="H70" s="67">
+      <c r="H70" s="52">
         <v>2.4303331893609901E-11</v>
       </c>
     </row>
-    <row r="71" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E71" s="63">
+    <row r="71" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E71" s="49">
         <v>7.7767700000000003E-15</v>
       </c>
-      <c r="F71" s="67">
+      <c r="F71" s="52">
         <v>8.4898639616557602E-15</v>
       </c>
-      <c r="G71" s="60">
+      <c r="G71" s="46">
         <v>2.0191779216228101E-14</v>
       </c>
-      <c r="H71" s="67">
+      <c r="H71" s="52">
         <v>9.3890062432155104E-16</v>
       </c>
     </row>
-    <row r="72" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E72" s="63">
+    <row r="72" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E72" s="49">
         <v>6.2565100000000004E-12</v>
       </c>
-      <c r="F72" s="67">
+      <c r="F72" s="52">
         <v>3.0146065635240301E-12</v>
       </c>
-      <c r="G72" s="60">
+      <c r="G72" s="46">
         <v>2.4129522772949801E-12</v>
       </c>
-      <c r="H72" s="67">
+      <c r="H72" s="52">
         <v>3.5748490751662501E-12</v>
       </c>
     </row>
-    <row r="73" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E73" s="63">
+    <row r="73" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E73" s="49">
         <v>4.2928900000000002E-14</v>
       </c>
-      <c r="F73" s="67">
+      <c r="F73" s="52">
         <v>5.3564967382118697E-14</v>
       </c>
-      <c r="G73" s="60">
+      <c r="G73" s="46">
         <v>4.2939988823147899E-14</v>
       </c>
-      <c r="H73" s="67">
+      <c r="H73" s="52">
         <v>3.3311170240323398E-14</v>
       </c>
     </row>
-    <row r="74" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D74" t="s">
-        <v>40</v>
-      </c>
-      <c r="E74" s="64">
-        <f>(0.0000000540311+0.0000000000000429289)/2</f>
-        <v>2.701557146445E-8</v>
-      </c>
-      <c r="F74" s="68">
+    <row r="74" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E74" s="49">
+        <v>5.4031100000000001E-8</v>
+      </c>
+      <c r="F74" s="52">
+        <v>9.1640007644011202E-10</v>
+      </c>
+      <c r="G74" s="46">
+        <v>1.50249542234088E-8</v>
+      </c>
+      <c r="H74" s="52">
+        <v>4.5005772771062001E-11</v>
+      </c>
+    </row>
+    <row r="75" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E75" s="69"/>
+      <c r="F75" s="53">
         <v>1.32264230605292E-5</v>
       </c>
-      <c r="G74" s="62">
+      <c r="G75" s="48">
         <v>8.6267756992300603E-6</v>
       </c>
-      <c r="H74" s="68">
+      <c r="H75" s="53">
         <v>1.12101483800396E-5</v>
       </c>
     </row>
-    <row r="75" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E75" s="63">
-        <v>5.4031100000000001E-8</v>
-      </c>
-      <c r="F75" s="67">
-        <v>9.1640007644011202E-10</v>
-      </c>
-      <c r="G75" s="60">
-        <v>1.50249542234088E-8</v>
-      </c>
-      <c r="H75" s="67">
-        <v>4.5005772771062001E-11</v>
-      </c>
-    </row>
-    <row r="76" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E76" s="65"/>
-      <c r="F76" s="69"/>
-      <c r="G76" s="66"/>
-      <c r="H76" s="70">
+    <row r="76" spans="5:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E76" s="50"/>
+      <c r="F76" s="54"/>
+      <c r="G76" s="51"/>
+      <c r="H76" s="55">
         <v>7.4255806455859999E-14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="E30:H30"/>
     <mergeCell ref="E11:H11"/>
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="E20:H20"/>
@@ -18199,11 +17888,6 @@
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="I8:L8"/>
     <mergeCell ref="I10:L10"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="E30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>

--- a/Misure Tot.xlsx
+++ b/Misure Tot.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\uni\Bicocca\Magistrale\1 anno\Metodi del calcolo scientifico\Progetto\1\TEMPI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\-Andrea-\Downloads\Telegram Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3C33A2-0A4C-4C94-BE44-2371D34A61C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335C4DC4-798D-49EA-81AB-1450ECA0BEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="55">
   <si>
     <t>MATRICE</t>
   </si>
@@ -178,6 +181,27 @@
   </si>
   <si>
     <t>MATLAB</t>
+  </si>
+  <si>
+    <t>classifica</t>
+  </si>
+  <si>
+    <t>Load Ubuntu (s)</t>
+  </si>
+  <si>
+    <t>Load Windows(s)</t>
+  </si>
+  <si>
+    <t>TOT</t>
+  </si>
+  <si>
+    <t>c++</t>
+  </si>
+  <si>
+    <t>python</t>
+  </si>
+  <si>
+    <t>R</t>
   </si>
 </sst>
 </file>
@@ -450,6 +474,8 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -457,6 +483,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -468,15 +503,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -486,8 +512,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -3656,6 +3680,1618 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1958240511"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>C++ load time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Foglio1!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Load Ubuntu (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>([1]Foglio1!$E$3:$E$7,[1]Foglio1!$E$9)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3E66-4E70-9CC8-67F0B5517BFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Foglio1!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Load Windows(s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>([1]Foglio1!$I$3:$I$7,[1]Foglio1!$I$9)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3E66-4E70-9CC8-67F0B5517BFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="128562256"/>
+        <c:axId val="128563504"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="128562256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="128563504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="128563504"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="128562256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Python load time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Foglio1!$E$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Load Ubuntu (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Foglio1!$E$13:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.62880000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.39</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.139500000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-20D0-4813-B055-40FA3A9DE4B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Foglio1!$I$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Load Windows(s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Foglio1!$I$13:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.57399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.522</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.41</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-20D0-4813-B055-40FA3A9DE4B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="128562256"/>
+        <c:axId val="128563504"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="128562256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="128563504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="128563504"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="128562256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>R load time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Foglio1!$E$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Load Ubuntu (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Foglio1!$E$23:$E$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.17100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47749999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83784499999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8741000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.028</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0549999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.1639999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A5CC-4843-A8E4-6914946263CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Foglio1!$I$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Load Windows(s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Foglio1!$I$23:$I$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.64680000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.69710000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.14438</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6556999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A5CC-4843-A8E4-6914946263CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="128562256"/>
+        <c:axId val="128563504"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="128562256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="128563504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="128563504"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="128562256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>MATLAB load time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Foglio1!$E$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Load Ubuntu (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Foglio1!$E$33:$E$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.9414000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.4753999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.3417E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22145100000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15271599999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97988500000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3217000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5620479</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-240B-44A0-AB40-5689629443BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Foglio1!$I$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Load Windows(s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Foglio1!$I$33:$I$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.9339E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.113733</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23162430000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14274020000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0037850000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3785232999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.6366109999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-240B-44A0-AB40-5689629443BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="128562256"/>
+        <c:axId val="128563504"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="128562256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="128563504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="128563504"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="128562256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7300,6 +8936,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -10717,6 +12513,2070 @@
 </file>
 
 <file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style19.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -15902,7 +19762,429 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>36195</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="22" name="Grafico 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC3DADE4-17AE-41D5-92A3-153B7776CC52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>97155</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="23" name="Grafico 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5695E54-99CE-49CE-B0FA-67BD1A47421B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>81915</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="24" name="Grafico 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7D688F3-E9D9-4A3C-8C7E-1901DFF81886}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>20955</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="25" name="Grafico 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E898AF4-EC0D-4872-92C7-41AC581122B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Foglio1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="E2" t="str">
+            <v>Load Ubuntu (s)</v>
+          </cell>
+          <cell r="I2" t="str">
+            <v>Load Windows(s)</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="E3">
+            <v>1</v>
+          </cell>
+          <cell r="I3">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="E4">
+            <v>1</v>
+          </cell>
+          <cell r="I4">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="E5">
+            <v>2</v>
+          </cell>
+          <cell r="I5">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="E6">
+            <v>7</v>
+          </cell>
+          <cell r="I6">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="E7">
+            <v>5</v>
+          </cell>
+          <cell r="I7">
+            <v>19</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="E9">
+            <v>22</v>
+          </cell>
+          <cell r="I9">
+            <v>77</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="E12" t="str">
+            <v>Load Ubuntu (s)</v>
+          </cell>
+          <cell r="I12" t="str">
+            <v>Load Windows(s)</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="E13">
+            <v>0.62880000000000003</v>
+          </cell>
+          <cell r="I13">
+            <v>0.57399999999999995</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="E14">
+            <v>1.5</v>
+          </cell>
+          <cell r="I14">
+            <v>1.522</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="E15">
+            <v>2.4900000000000002</v>
+          </cell>
+          <cell r="I15">
+            <v>2.39</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="E16">
+            <v>6</v>
+          </cell>
+          <cell r="I16">
+            <v>5.9</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="E17">
+            <v>5.48</v>
+          </cell>
+          <cell r="I17">
+            <v>5.3</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="E18">
+            <v>15.39</v>
+          </cell>
+          <cell r="I18">
+            <v>14.41</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="E19">
+            <v>19.139500000000002</v>
+          </cell>
+          <cell r="I19">
+            <v>18.25</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="E22" t="str">
+            <v>Load Ubuntu (s)</v>
+          </cell>
+          <cell r="I22" t="str">
+            <v>Load Windows(s)</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="E23">
+            <v>0.17100000000000001</v>
+          </cell>
+          <cell r="I23">
+            <v>0.64680000000000004</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="E24">
+            <v>0.47749999999999998</v>
+          </cell>
+          <cell r="I24">
+            <v>0.69710000000000005</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="E25">
+            <v>0.83784499999999995</v>
+          </cell>
+          <cell r="I25">
+            <v>1.14438</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="E26">
+            <v>1.8741000000000001</v>
+          </cell>
+          <cell r="I26">
+            <v>2.68</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="E27">
+            <v>2.028</v>
+          </cell>
+          <cell r="I27">
+            <v>2.6556999999999999</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="E28">
+            <v>5.0549999999999997</v>
+          </cell>
+          <cell r="I28">
+            <v>7.25</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="E29">
+            <v>6.1639999999999997</v>
+          </cell>
+          <cell r="I29">
+            <v>8.49</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="E32" t="str">
+            <v>Load Ubuntu (s)</v>
+          </cell>
+          <cell r="I32" t="str">
+            <v>Load Windows(s)</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="E33">
+            <v>1.9414000000000001E-2</v>
+          </cell>
+          <cell r="I33">
+            <v>2.9339E-2</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="E34">
+            <v>8.4753999999999996E-2</v>
+          </cell>
+          <cell r="I34">
+            <v>0.113733</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="E35">
+            <v>9.3417E-2</v>
+          </cell>
+          <cell r="I35">
+            <v>0.11999</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="E36">
+            <v>0.22145100000000001</v>
+          </cell>
+          <cell r="I36">
+            <v>0.23162430000000001</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="E37">
+            <v>0.15271599999999999</v>
+          </cell>
+          <cell r="I37">
+            <v>0.14274020000000001</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="E38">
+            <v>0.97988500000000001</v>
+          </cell>
+          <cell r="I38">
+            <v>2.0037850000000001</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="E39">
+            <v>1.3217000000000001</v>
+          </cell>
+          <cell r="I39">
+            <v>1.3785232999999999</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="E40">
+            <v>2.5620479</v>
+          </cell>
+          <cell r="I40">
+            <v>2.6366109999999998</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16168,44 +20450,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:L76"/>
+  <dimension ref="B1:M103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74:H74"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N100" sqref="N100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" style="27" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" style="33" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" style="27" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" customWidth="1"/>
+    <col min="7" max="7" width="21.88671875" style="33" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" customWidth="1"/>
-    <col min="11" max="11" width="24.28515625" style="33" customWidth="1"/>
-    <col min="12" max="12" width="23.42578125" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" customWidth="1"/>
+    <col min="11" max="11" width="24.33203125" style="33" customWidth="1"/>
+    <col min="12" max="12" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="16"/>
       <c r="C1" s="17"/>
       <c r="D1" s="18"/>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="62" t="s">
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="64"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="63"/>
     </row>
-    <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
@@ -16240,7 +20522,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -16276,7 +20558,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -16311,7 +20593,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -16346,7 +20628,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -16381,7 +20663,7 @@
         <v>2331</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
@@ -16416,7 +20698,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
@@ -16426,16 +20708,16 @@
       <c r="D8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="65"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="69"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
@@ -16470,7 +20752,7 @@
         <v>6337</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
@@ -16480,33 +20762,33 @@
       <c r="D10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="65"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="69"/>
     </row>
-    <row r="11" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="56" t="s">
+      <c r="E11" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="56" t="s">
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="58"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="60"/>
     </row>
-    <row r="12" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="16" t="s">
         <v>0</v>
       </c>
@@ -16541,7 +20823,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
@@ -16577,7 +20859,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -16613,7 +20895,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -16649,7 +20931,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -16685,7 +20967,7 @@
         <v>9568</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
@@ -16721,7 +21003,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
@@ -16757,7 +21039,7 @@
         <v>13117</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>8</v>
       </c>
@@ -16793,7 +21075,7 @@
         <v>9603</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="13" t="s">
         <v>9</v>
       </c>
@@ -16803,33 +21085,33 @@
       <c r="D20" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="59"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="61"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="66"/>
     </row>
-    <row r="21" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="16"/>
       <c r="C21" s="17"/>
       <c r="D21" s="18"/>
-      <c r="E21" s="62" t="s">
+      <c r="E21" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="62" t="s">
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="J21" s="63"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="64"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="63"/>
     </row>
-    <row r="22" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="1" t="s">
         <v>0</v>
       </c>
@@ -16864,7 +21146,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>2</v>
       </c>
@@ -16901,7 +21183,7 @@
         <v>21.86308</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>3</v>
       </c>
@@ -16938,7 +21220,7 @@
         <v>26.548802999999999</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>4</v>
       </c>
@@ -16975,7 +21257,7 @@
         <v>163.57148000000001</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>5</v>
       </c>
@@ -17012,7 +21294,7 @@
         <v>1988.8832640000001</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>6</v>
       </c>
@@ -17049,7 +21331,7 @@
         <v>274.94207999999998</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>7</v>
       </c>
@@ -17086,7 +21368,7 @@
         <v>85.275335999999996</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>8</v>
       </c>
@@ -17123,7 +21405,7 @@
         <v>1418.6064799999999</v>
       </c>
     </row>
-    <row r="30" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="13" t="s">
         <v>9</v>
       </c>
@@ -17133,10 +21415,10 @@
       <c r="D30" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="59"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="61"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="66"/>
       <c r="I30" s="34">
         <v>19.13</v>
       </c>
@@ -17144,24 +21426,24 @@
       <c r="K30" s="35"/>
       <c r="L30" s="36"/>
     </row>
-    <row r="31" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="10"/>
       <c r="C31" s="11"/>
       <c r="D31" s="12"/>
-      <c r="E31" s="56" t="s">
+      <c r="E31" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="56" t="s">
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="58"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="60"/>
     </row>
-    <row r="32" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="10" t="s">
         <v>0</v>
       </c>
@@ -17196,7 +21478,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>2</v>
       </c>
@@ -17233,7 +21515,7 @@
         <v>360.44799999999998</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
         <v>3</v>
       </c>
@@ -17270,7 +21552,7 @@
         <v>1684.48</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
         <v>4</v>
       </c>
@@ -17307,7 +21589,7 @@
         <v>107.52</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
         <v>5</v>
       </c>
@@ -17344,7 +21626,7 @@
         <v>16490.004000000001</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>6</v>
       </c>
@@ -17381,7 +21663,7 @@
         <v>2141.1840000000002</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
         <v>7</v>
       </c>
@@ -17418,7 +21700,7 @@
         <v>517.952</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
         <v>8</v>
       </c>
@@ -17455,7 +21737,7 @@
         <v>5506.56</v>
       </c>
     </row>
-    <row r="40" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="13" t="s">
         <v>9</v>
       </c>
@@ -17492,8 +21774,8 @@
         <v>11653.983249999999</v>
       </c>
     </row>
-    <row r="42" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E43" s="10" t="s">
         <v>39</v>
       </c>
@@ -17507,7 +21789,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="E44" s="43">
         <v>73</v>
       </c>
@@ -17521,7 +21803,7 @@
         <v>0.145652</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="E45" s="39">
         <v>38</v>
       </c>
@@ -17535,7 +21817,7 @@
         <v>0.419437</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="E46" s="39">
         <v>222</v>
       </c>
@@ -17549,7 +21831,7 @@
         <v>1.119775</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="E47" s="39">
         <v>867</v>
       </c>
@@ -17563,7 +21845,7 @@
         <v>8.1559869999999997</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="E48" s="39">
         <v>277</v>
       </c>
@@ -17577,7 +21859,7 @@
         <v>1.59745</v>
       </c>
     </row>
-    <row r="49" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E49" s="39">
         <v>21938</v>
       </c>
@@ -17591,8 +21873,8 @@
         <v>47.19</v>
       </c>
     </row>
-    <row r="50" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E50" s="68"/>
+    <row r="50" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E50" s="56"/>
       <c r="F50" s="6">
         <v>3.2109999999999999</v>
       </c>
@@ -17603,7 +21885,7 @@
         <v>1.8173779999999999</v>
       </c>
     </row>
-    <row r="51" spans="5:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E51" s="41"/>
       <c r="F51" s="15"/>
       <c r="G51" s="14"/>
@@ -17611,8 +21893,8 @@
         <v>403.65339999999998</v>
       </c>
     </row>
-    <row r="56" spans="5:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="57" spans="5:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="5:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="57" spans="5:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E57" s="38" t="s">
         <v>42</v>
       </c>
@@ -17626,7 +21908,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E58" s="1">
         <v>107</v>
       </c>
@@ -17643,7 +21925,7 @@
         <v>79.861000000000004</v>
       </c>
     </row>
-    <row r="59" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E59" s="1">
         <v>142</v>
       </c>
@@ -17660,7 +21942,7 @@
         <v>82.525000000000006</v>
       </c>
     </row>
-    <row r="60" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E60" s="1">
         <v>413</v>
       </c>
@@ -17677,7 +21959,7 @@
         <v>402.24799999999999</v>
       </c>
     </row>
-    <row r="61" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E61" s="1">
         <v>2335</v>
       </c>
@@ -17694,7 +21976,7 @@
         <v>1584.64</v>
       </c>
     </row>
-    <row r="62" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E62" s="1">
         <v>752</v>
       </c>
@@ -17711,7 +21993,7 @@
         <v>1853.4390000000001</v>
       </c>
     </row>
-    <row r="63" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E63" s="1">
         <v>7057</v>
       </c>
@@ -17728,7 +22010,7 @@
         <v>6261.2280000000001</v>
       </c>
     </row>
-    <row r="64" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E64" s="20"/>
       <c r="F64" s="40">
         <f>220*4.096</f>
@@ -17743,7 +22025,7 @@
         <v>506.88</v>
       </c>
     </row>
-    <row r="65" spans="5:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="5:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E65" s="44"/>
       <c r="F65" s="41"/>
       <c r="G65" s="45"/>
@@ -17752,8 +22034,8 @@
         <v>10821.608249999999</v>
       </c>
     </row>
-    <row r="67" spans="5:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="68" spans="5:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="5:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="68" spans="5:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E68" s="38" t="s">
         <v>44</v>
       </c>
@@ -17767,7 +22049,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="69" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E69" s="49">
         <v>9.0404699999999995E-13</v>
       </c>
@@ -17781,7 +22063,7 @@
         <v>3.80985793527588E-15</v>
       </c>
     </row>
-    <row r="70" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E70" s="49">
         <v>1.1203000000000001E-11</v>
       </c>
@@ -17795,7 +22077,7 @@
         <v>2.4303331893609901E-11</v>
       </c>
     </row>
-    <row r="71" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E71" s="49">
         <v>7.7767700000000003E-15</v>
       </c>
@@ -17809,7 +22091,7 @@
         <v>9.3890062432155104E-16</v>
       </c>
     </row>
-    <row r="72" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E72" s="49">
         <v>6.2565100000000004E-12</v>
       </c>
@@ -17823,7 +22105,7 @@
         <v>3.5748490751662501E-12</v>
       </c>
     </row>
-    <row r="73" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E73" s="49">
         <v>4.2928900000000002E-14</v>
       </c>
@@ -17837,7 +22119,7 @@
         <v>3.3311170240323398E-14</v>
       </c>
     </row>
-    <row r="74" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E74" s="49">
         <v>5.4031100000000001E-8</v>
       </c>
@@ -17851,8 +22133,8 @@
         <v>4.5005772771062001E-11</v>
       </c>
     </row>
-    <row r="75" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E75" s="69"/>
+    <row r="75" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E75" s="57"/>
       <c r="F75" s="53">
         <v>1.32264230605292E-5</v>
       </c>
@@ -17863,7 +22145,7 @@
         <v>1.12101483800396E-5</v>
       </c>
     </row>
-    <row r="76" spans="5:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="5:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E76" s="50"/>
       <c r="F76" s="54"/>
       <c r="G76" s="51"/>
@@ -17871,13 +22153,188 @@
         <v>7.4255806455859999E-14</v>
       </c>
     </row>
+    <row r="98" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="99" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C99" t="s">
+        <v>48</v>
+      </c>
+      <c r="D99" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E99" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F99" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="G99" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H99" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="I99" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J99" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="K99" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="L99" t="s">
+        <v>51</v>
+      </c>
+      <c r="M99" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C100" t="s">
+        <v>52</v>
+      </c>
+      <c r="D100">
+        <v>4</v>
+      </c>
+      <c r="E100">
+        <v>4</v>
+      </c>
+      <c r="F100">
+        <v>4</v>
+      </c>
+      <c r="G100">
+        <v>4</v>
+      </c>
+      <c r="H100">
+        <v>4</v>
+      </c>
+      <c r="I100">
+        <v>4</v>
+      </c>
+      <c r="J100">
+        <v>4</v>
+      </c>
+      <c r="K100">
+        <v>2</v>
+      </c>
+      <c r="L100">
+        <f>SUM(D100:K100)</f>
+        <v>30</v>
+      </c>
+      <c r="M100">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C101" t="s">
+        <v>53</v>
+      </c>
+      <c r="D101">
+        <v>3</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>3</v>
+      </c>
+      <c r="G101">
+        <v>2</v>
+      </c>
+      <c r="H101">
+        <v>3</v>
+      </c>
+      <c r="I101">
+        <v>3</v>
+      </c>
+      <c r="J101">
+        <v>3</v>
+      </c>
+      <c r="K101">
+        <v>4</v>
+      </c>
+      <c r="L101">
+        <f t="shared" ref="L101:L103" si="0">SUM(D101:K101)</f>
+        <v>22</v>
+      </c>
+      <c r="M101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C102" t="s">
+        <v>54</v>
+      </c>
+      <c r="D102">
+        <v>2</v>
+      </c>
+      <c r="E102">
+        <v>3</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+      <c r="H102">
+        <v>2</v>
+      </c>
+      <c r="I102">
+        <v>2</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="L102">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C103" t="s">
+        <v>47</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <v>2</v>
+      </c>
+      <c r="F103">
+        <v>2</v>
+      </c>
+      <c r="G103">
+        <v>3</v>
+      </c>
+      <c r="H103">
+        <v>1</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103">
+        <v>2</v>
+      </c>
+      <c r="K103">
+        <v>3</v>
+      </c>
+      <c r="L103">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="M103">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="E30:H30"/>
     <mergeCell ref="E11:H11"/>
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="E20:H20"/>
@@ -17888,6 +22345,11 @@
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="I8:L8"/>
     <mergeCell ref="I10:L10"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="E30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>

--- a/Misure Tot.xlsx
+++ b/Misure Tot.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\-Andrea-\Downloads\Telegram Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\-Andrea-\Desktop\EMACS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335C4DC4-798D-49EA-81AB-1450ECA0BEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1279A441-3BD9-4B90-9F26-79E0B48F9308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="57">
   <si>
     <t>MATRICE</t>
   </si>
@@ -203,6 +203,12 @@
   <si>
     <t>R</t>
   </si>
+  <si>
+    <t>tot UBUNTU</t>
+  </si>
+  <si>
+    <t>tot WINDOWS</t>
+  </si>
 </sst>
 </file>
 
@@ -213,8 +219,16 @@
     <numFmt numFmtId="165" formatCode="#,##0.0000"/>
     <numFmt numFmtId="166" formatCode="0.0000000000000000E+00"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -417,7 +431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -485,6 +499,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -492,15 +515,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -512,6 +526,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -20450,10 +20465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M103"/>
+  <dimension ref="B1:M116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N100" sqref="N100"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G116" sqref="G116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20474,18 +20489,18 @@
       <c r="B1" s="16"/>
       <c r="C1" s="17"/>
       <c r="D1" s="18"/>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="61" t="s">
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="63"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="66"/>
     </row>
     <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="16" t="s">
@@ -21085,31 +21100,31 @@
       <c r="D20" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="64"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="66"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="63"/>
     </row>
     <row r="21" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="16"/>
       <c r="C21" s="17"/>
       <c r="D21" s="18"/>
-      <c r="E21" s="61" t="s">
+      <c r="E21" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="61" t="s">
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="J21" s="62"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="63"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="66"/>
     </row>
     <row r="22" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="1" t="s">
@@ -21415,10 +21430,10 @@
       <c r="D30" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="64"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="66"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="63"/>
       <c r="I30" s="34">
         <v>19.13</v>
       </c>
@@ -22215,11 +22230,10 @@
         <v>4</v>
       </c>
       <c r="K100">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L100">
-        <f>SUM(D100:K100)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M100">
         <v>4</v>
@@ -22233,13 +22247,13 @@
         <v>3</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F101">
         <v>3</v>
       </c>
       <c r="G101">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H101">
         <v>3</v>
@@ -22254,8 +22268,7 @@
         <v>4</v>
       </c>
       <c r="L101">
-        <f t="shared" ref="L101:L103" si="0">SUM(D101:K101)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M101">
         <v>3</v>
@@ -22275,7 +22288,7 @@
         <v>1</v>
       </c>
       <c r="G102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H102">
         <v>2</v>
@@ -22287,14 +22300,13 @@
         <v>1</v>
       </c>
       <c r="K102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L102">
-        <f t="shared" si="0"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M102">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="3:13" x14ac:dyDescent="0.3">
@@ -22305,13 +22317,13 @@
         <v>1</v>
       </c>
       <c r="E103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F103">
         <v>2</v>
       </c>
       <c r="G103">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -22323,18 +22335,101 @@
         <v>2</v>
       </c>
       <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="L103">
+        <v>10</v>
+      </c>
+      <c r="M103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="G104" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="K104" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="105" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="F105" t="s">
+        <v>52</v>
+      </c>
+      <c r="G105">
+        <v>16</v>
+      </c>
+      <c r="H105">
+        <v>4</v>
+      </c>
+      <c r="K105">
+        <v>15</v>
+      </c>
+      <c r="L105">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="F106" t="s">
+        <v>53</v>
+      </c>
+      <c r="G106">
+        <v>11</v>
+      </c>
+      <c r="H106">
         <v>3</v>
       </c>
-      <c r="L103">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="M103">
+      <c r="K106">
+        <v>13</v>
+      </c>
+      <c r="L106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="F107" t="s">
+        <v>54</v>
+      </c>
+      <c r="G107">
+        <v>8</v>
+      </c>
+      <c r="H107">
         <v>2</v>
       </c>
+      <c r="K107">
+        <v>7</v>
+      </c>
+      <c r="L107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="F108" t="s">
+        <v>47</v>
+      </c>
+      <c r="G108">
+        <v>5</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+      <c r="K108">
+        <v>5</v>
+      </c>
+      <c r="L108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G116" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="E30:H30"/>
     <mergeCell ref="E11:H11"/>
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="E20:H20"/>
@@ -22345,11 +22440,6 @@
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="I8:L8"/>
     <mergeCell ref="I10:L10"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="E30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
